--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -49,6 +49,9 @@
   <si>
     <t>3 botellones</t>
   </si>
+  <si>
+    <t>4 botellones</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +61,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,13 +210,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -212,6 +228,10 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -219,6 +239,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E28"/>
+  <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="6"/>
+    <col min="4" max="5" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -513,30 +538,30 @@
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45113</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>500</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f>D6</f>
         <v>500</v>
       </c>
@@ -545,25 +570,25 @@
       <c r="B7" s="2">
         <v>45114</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>260</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>45118</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>156</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f>E6-D7-D8</f>
         <v>84</v>
       </c>
@@ -572,130 +597,220 @@
       <c r="B9" s="2">
         <v>45120</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>500</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <f>E8+D9</f>
         <v>584</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-260</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10:E21" si="0">E9+D10</f>
+        <v>324</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-208</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -61,7 +61,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -210,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -218,20 +238,21 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -241,6 +262,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -520,15 +542,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -538,24 +561,24 @@
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>45113</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5">
@@ -566,11 +589,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>45114</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6">
@@ -578,11 +601,11 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>45118</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6">
@@ -593,11 +616,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>45120</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6">
@@ -608,11 +631,11 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>45121</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6">
@@ -623,11 +646,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>45125</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6">
@@ -638,179 +661,185 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="6"/>
+    <row r="12" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>500</v>
+      </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="14"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="14"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="14"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="14"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="11"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="11"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="11"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="11"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="11"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="11"/>
+      <c r="C42" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -61,7 +61,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -253,6 +261,7 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -543,7 +552,7 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -677,30 +686,48 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-156</v>
+      </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-260</v>
+      </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>616</v>
+      <c r="B15" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-208</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>-8</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,7 +736,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -718,7 +745,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -727,7 +754,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,7 +763,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,7 +772,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -754,7 +781,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -552,12 +552,12 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
@@ -731,30 +731,48 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>500</v>
+      </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-156</v>
+      </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-156</v>
+      </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,7 +781,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -772,7 +790,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -781,7 +799,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -262,6 +262,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -552,7 +553,7 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -605,7 +606,7 @@
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="17">
         <v>260</v>
       </c>
       <c r="E7" s="6"/>
@@ -617,10 +618,10 @@
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="17">
         <v>156</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="17">
         <f>E6-D7-D8</f>
         <v>84</v>
       </c>
@@ -776,30 +777,48 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>500</v>
+      </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-156</v>
+      </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-260</v>
+      </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -652,7 +652,7 @@
         <v>-260</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:E21" si="0">E9+D10</f>
+        <f t="shared" ref="E10:E27" si="0">E9+D10</f>
         <v>324</v>
       </c>
     </row>
@@ -822,40 +822,64 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-265</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -837,21 +837,33 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="2">
+        <v>45167</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>500</v>
+      </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="2">
+        <v>45163</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-212</v>
+      </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -860,7 +872,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -869,7 +881,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -878,7 +890,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>4 botellones</t>
+  </si>
+  <si>
+    <t>6 botellones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    P A G O </t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -238,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -246,9 +258,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +273,11 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -272,6 +287,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -550,10 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E42"/>
+  <dimension ref="B3:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -571,16 +589,16 @@
     </row>
     <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -588,7 +606,7 @@
       <c r="B6" s="3">
         <v>45113</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5">
@@ -603,10 +621,10 @@
       <c r="B7" s="2">
         <v>45114</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>260</v>
       </c>
       <c r="E7" s="6"/>
@@ -615,13 +633,13 @@
       <c r="B8" s="2">
         <v>45118</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>156</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f>E6-D7-D8</f>
         <v>84</v>
       </c>
@@ -630,7 +648,7 @@
       <c r="B9" s="2">
         <v>45120</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6">
@@ -645,14 +663,14 @@
       <c r="B10" s="2">
         <v>45121</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6">
         <v>-260</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:E27" si="0">E9+D10</f>
+        <f t="shared" ref="E10:E69" si="0">E9+D10</f>
         <v>324</v>
       </c>
     </row>
@@ -660,7 +678,7 @@
       <c r="B11" s="2">
         <v>45125</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6">
@@ -675,7 +693,7 @@
       <c r="B12" s="2">
         <v>45127</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="6">
@@ -690,7 +708,7 @@
       <c r="B13" s="2">
         <v>45128</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6">
@@ -705,7 +723,7 @@
       <c r="B14" s="2">
         <v>45132</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6">
@@ -720,13 +738,13 @@
       <c r="B15" s="2">
         <v>45135</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6">
         <v>-208</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
@@ -735,7 +753,7 @@
       <c r="B16" s="2">
         <v>45143</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="6">
@@ -750,7 +768,7 @@
       <c r="B17" s="2">
         <v>45139</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6">
@@ -765,7 +783,7 @@
       <c r="B18" s="2">
         <v>45142</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6">
@@ -780,7 +798,7 @@
       <c r="B19" s="2">
         <v>45156</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6">
@@ -795,7 +813,7 @@
       <c r="B20" s="2">
         <v>45153</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6">
@@ -810,7 +828,7 @@
       <c r="B21" s="2">
         <v>45156</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6">
@@ -825,7 +843,7 @@
       <c r="B22" s="2">
         <v>45160</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="6">
@@ -840,7 +858,7 @@
       <c r="B23" s="2">
         <v>45167</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
@@ -855,7 +873,7 @@
       <c r="B24" s="2">
         <v>45163</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6">
@@ -867,79 +885,439 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="16">
+        <v>45167</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15">
+        <v>-318</v>
+      </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="2">
+        <v>45170</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-212</v>
+      </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>287</v>
+      <c r="B27" s="2">
+        <v>45171</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="20">
+        <v>243</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="2">
+        <v>45171</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>500</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -945,21 +945,33 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="2">
+        <v>45174</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-212</v>
+      </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="2">
+        <v>45177</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-212</v>
+      </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
@@ -968,7 +980,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -977,7 +989,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -986,7 +998,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -995,7 +1007,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1004,7 +1016,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -1013,7 +1025,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1034,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1031,7 +1043,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1040,7 +1052,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1049,7 +1061,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1058,7 +1070,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1079,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1088,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1097,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1094,7 +1106,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1103,7 +1115,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1112,7 +1124,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1121,7 +1133,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1130,7 +1142,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1151,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1148,7 +1160,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1157,7 +1169,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1178,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1175,7 +1187,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1196,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1205,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1214,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1223,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1232,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1241,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1250,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1259,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1268,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1277,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1286,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1295,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1304,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1313,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1322,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -975,12 +975,18 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="2">
+        <v>45180</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>500</v>
+      </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -989,7 +995,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -998,7 +1004,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -1007,7 +1013,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1016,7 +1022,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -1025,7 +1031,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1034,7 +1040,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1043,7 +1049,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1052,7 +1058,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1061,7 +1067,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1070,7 +1076,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1079,7 +1085,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1088,7 +1094,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1097,7 +1103,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1106,7 +1112,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1121,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1124,7 +1130,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1142,7 +1148,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1157,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1160,7 +1166,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1178,7 +1184,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1193,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1196,7 +1202,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1211,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1238,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1256,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1268,7 +1274,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1277,7 +1283,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1286,7 +1292,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1301,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1304,7 +1310,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1319,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1322,7 +1328,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -990,30 +990,48 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="2">
+        <v>45181</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-212</v>
+      </c>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="2">
+        <v>45184</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-212</v>
+      </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="2">
+        <v>45189</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
+        <v>500</v>
+      </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1040,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -1031,7 +1049,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1040,7 +1058,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1049,7 +1067,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1058,7 +1076,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1085,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1094,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1103,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1094,7 +1112,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1103,7 +1121,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1112,7 +1130,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1121,7 +1139,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1130,7 +1148,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1157,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1148,7 +1166,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1157,7 +1175,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1184,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1175,7 +1193,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1202,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1211,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1220,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1229,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1238,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1247,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1256,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1265,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1274,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1283,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1292,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1301,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1310,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1319,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1328,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1337,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1346,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1035,21 +1035,33 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="2">
+        <v>45188</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-159</v>
+      </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="2">
+        <v>45191</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-159</v>
+      </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1058,7 +1070,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1079,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1088,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1097,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1094,7 +1106,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1103,7 +1115,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1112,7 +1124,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1121,7 +1133,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1130,7 +1142,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1151,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1148,7 +1160,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1157,7 +1169,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1178,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1175,7 +1187,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1196,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1205,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1214,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1223,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1232,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1241,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1250,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1259,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1268,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1277,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1286,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1295,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1304,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1313,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1322,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1331,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1340,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1349,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1358,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1065,12 +1065,18 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="2">
+        <v>45195</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-212</v>
+      </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1079,7 +1085,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1088,7 +1094,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1097,7 +1103,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1106,7 +1112,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1121,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1124,7 +1130,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1142,7 +1148,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1157,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1160,7 +1166,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1178,7 +1184,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1193,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1196,7 +1202,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1211,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1238,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1256,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1268,7 +1274,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1277,7 +1283,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1286,7 +1292,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1301,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1304,7 +1310,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1319,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1322,7 +1328,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1331,7 +1337,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1340,7 +1346,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1355,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1358,7 +1364,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1080,21 +1080,33 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="2">
+        <v>45197</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>500</v>
+      </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="2">
+        <v>45198</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-265</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1103,7 +1115,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1112,7 +1124,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1121,7 +1133,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1130,7 +1142,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1151,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1148,7 +1160,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1157,7 +1169,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1178,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1175,7 +1187,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1196,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1205,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1214,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1223,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1232,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1241,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1250,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1259,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1268,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1277,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1286,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1295,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1304,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1313,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1322,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1331,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1340,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1349,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1358,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1355,7 +1367,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1376,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -570,8 +570,8 @@
   <dimension ref="B3:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1110,12 +1110,18 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="2">
+        <v>45202</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-265</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1124,7 +1130,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
@@ -1142,7 +1148,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1157,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1160,7 +1166,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1178,7 +1184,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1193,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1196,7 +1202,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1211,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1238,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1256,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1268,7 +1274,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1277,7 +1283,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1286,7 +1292,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1301,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1304,7 +1310,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1319,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1322,7 +1328,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1331,7 +1337,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1340,7 +1346,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1355,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1358,7 +1364,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1367,7 +1373,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1376,7 +1382,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t xml:space="preserve">    P A G O </t>
   </si>
+  <si>
+    <t>2 Botellones</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +70,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -250,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -278,6 +289,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -287,10 +299,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -570,8 +582,8 @@
   <dimension ref="B3:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -936,7 +948,7 @@
       <c r="C28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="21">
         <v>500</v>
       </c>
       <c r="E28" s="6">
@@ -981,7 +993,7 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="21">
         <v>500</v>
       </c>
       <c r="E31" s="6">
@@ -1026,7 +1038,7 @@
       <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="21">
         <v>500</v>
       </c>
       <c r="E34" s="6">
@@ -1086,7 +1098,7 @@
       <c r="C38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="21">
         <v>500</v>
       </c>
       <c r="E38" s="6">
@@ -1125,30 +1137,48 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="2">
+        <v>45205</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-106</v>
+      </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="2">
+        <v>45209</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-265</v>
+      </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="2">
+        <v>45209</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="21">
+        <v>500</v>
+      </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
@@ -1157,7 +1187,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1196,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1175,7 +1205,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1214,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1223,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1202,7 +1232,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1241,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1250,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1229,7 +1259,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1268,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,7 +1277,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1286,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1265,7 +1295,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1304,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1313,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1322,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1331,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1340,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1349,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1358,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1367,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1376,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1355,7 +1385,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1394,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1373,7 +1403,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1382,7 +1412,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1182,21 +1182,33 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="2">
+        <v>45212</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-212</v>
+      </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="2">
+        <v>45216</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="6">
+        <v>-159</v>
+      </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1217,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1226,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1223,7 +1235,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1253,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1262,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1259,7 +1271,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1268,7 +1280,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1277,7 +1289,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1286,7 +1298,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1307,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1304,7 +1316,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1325,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1322,7 +1334,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1331,7 +1343,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1340,7 +1352,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1361,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1358,7 +1370,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1367,7 +1379,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1376,7 +1388,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1385,7 +1397,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1394,7 +1406,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1403,7 +1415,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1412,7 +1424,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1212,21 +1212,33 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="2">
+        <v>45219</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-159</v>
+      </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-309</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="2">
+        <v>45224</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="21">
+        <v>500</v>
+      </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1235,7 +1247,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1244,7 +1256,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -1253,7 +1265,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1262,7 +1274,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1271,7 +1283,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1280,7 +1292,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1289,7 +1301,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1298,7 +1310,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1307,7 +1319,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1316,7 +1328,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1325,7 +1337,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1334,7 +1346,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1343,7 +1355,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1352,7 +1364,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1361,7 +1373,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1370,7 +1382,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1379,7 +1391,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1388,7 +1400,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1397,7 +1409,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1406,7 +1418,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1415,7 +1427,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1424,7 +1436,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -70,7 +70,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -261,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -290,6 +298,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -583,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1242,30 +1252,48 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="2">
+        <v>45226</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6">
+        <v>-212</v>
+      </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="23">
+        <v>-159</v>
+      </c>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="2">
+        <v>45231</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="22">
+        <v>500</v>
+      </c>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -1274,7 +1302,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -1283,7 +1311,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1320,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1329,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1310,7 +1338,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,7 +1347,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1328,7 +1356,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1365,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1374,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1355,7 +1383,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1364,7 +1392,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1373,7 +1401,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1382,7 +1410,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1391,7 +1419,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1400,7 +1428,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1409,7 +1437,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1418,7 +1446,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1427,7 +1455,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1436,7 +1464,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1297,30 +1297,48 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="2">
+        <v>45233</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-106</v>
+      </c>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="2">
+        <v>45237</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>-265</v>
+      </c>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6">
+        <v>-106</v>
+      </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -1329,7 +1347,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -1338,7 +1356,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1347,7 +1365,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1356,7 +1374,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1365,7 +1383,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1374,7 +1392,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1383,7 +1401,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1392,7 +1410,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1401,7 +1419,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1410,7 +1428,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1419,7 +1437,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1428,7 +1446,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1437,7 +1455,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1446,7 +1464,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1455,7 +1473,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1464,7 +1482,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -592,8 +592,8 @@
   <dimension ref="B3:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1342,21 +1342,33 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="2">
+        <v>45244</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6">
+        <v>-265</v>
+      </c>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-422</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6">
+        <v>-212</v>
+      </c>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -1365,7 +1377,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -1374,7 +1386,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -1383,7 +1395,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1392,7 +1404,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1401,7 +1413,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1410,7 +1422,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1419,7 +1431,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1428,7 +1440,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1437,7 +1449,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1446,7 +1458,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1455,7 +1467,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1464,7 +1476,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1473,7 +1485,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1482,7 +1494,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>-634</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -592,8 +592,8 @@
   <dimension ref="B3:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1358,44 +1358,62 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6">
+        <v>500</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
         <v>45247</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>-212</v>
       </c>
-      <c r="E55" s="6">
-        <f t="shared" si="0"/>
-        <v>-634</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="6"/>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="2">
+        <v>45251</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-212</v>
+      </c>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6">
+        <v>500</v>
+      </c>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -1404,7 +1422,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -1413,7 +1431,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1422,7 +1440,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1431,7 +1449,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1440,7 +1458,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1449,7 +1467,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1458,7 +1476,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1467,7 +1485,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1476,7 +1494,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1485,7 +1503,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1494,7 +1512,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>-634</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1417,21 +1417,33 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-212</v>
+      </c>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-159</v>
+      </c>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -1440,7 +1452,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1449,7 +1461,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1458,7 +1470,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1467,7 +1479,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1476,7 +1488,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1485,7 +1497,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1494,7 +1506,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1503,7 +1515,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1512,7 +1524,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>-217</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1447,12 +1447,18 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>500</v>
+      </c>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
@@ -1461,7 +1467,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -1470,7 +1476,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1488,7 +1494,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1497,7 +1503,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1506,7 +1512,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1515,7 +1521,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1524,7 +1530,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -592,8 +592,8 @@
   <dimension ref="B3:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1462,39 +1462,63 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="6"/>
+      <c r="B62" s="2">
+        <v>45272</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6">
+        <v>500</v>
+      </c>
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-212</v>
+      </c>
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="6">
+        <v>-106</v>
+      </c>
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="6"/>
+      <c r="B65" s="2">
+        <v>45268</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6">
+        <v>-159</v>
+      </c>
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -1503,7 +1527,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
@@ -1512,7 +1536,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
@@ -1521,7 +1545,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1554,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1522,30 +1522,48 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="2">
+        <v>45272</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>500</v>
+      </c>
       <c r="E66" s="6">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="2">
+        <v>45272</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>-265</v>
+      </c>
       <c r="E67" s="6">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="2">
+        <v>45275</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-159</v>
+      </c>
       <c r="E68" s="6">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -1554,7 +1572,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -589,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E70"/>
+  <dimension ref="B3:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -692,7 +692,7 @@
         <v>-260</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:E69" si="0">E9+D10</f>
+        <f t="shared" ref="E10:E73" si="0">E9+D10</f>
         <v>324</v>
       </c>
     </row>
@@ -1567,19 +1567,148 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="6">
+        <v>-318</v>
+      </c>
       <c r="E69" s="6">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6">
+        <v>500</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <f t="shared" ref="E74:E82" si="1">E73+D74</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1597,21 +1597,33 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="2">
+        <v>45282</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="6">
+        <v>-159</v>
+      </c>
       <c r="E71" s="6">
         <f t="shared" si="0"/>
-        <v>564</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="2">
+        <v>45286</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="6">
+        <v>-212</v>
+      </c>
       <c r="E72" s="6">
         <f t="shared" si="0"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
@@ -1620,7 +1632,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6">
         <f t="shared" si="0"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
@@ -1629,7 +1641,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6">
         <f t="shared" ref="E74:E82" si="1">E73+D74</f>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1650,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
@@ -1647,7 +1659,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
@@ -1656,7 +1668,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
@@ -1665,7 +1677,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -1674,7 +1686,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -1683,7 +1695,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -1692,7 +1704,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -1701,7 +1713,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1627,30 +1627,48 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>500</v>
+      </c>
       <c r="E73" s="6">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="6"/>
+      <c r="B74" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6">
+        <v>-265</v>
+      </c>
       <c r="E74" s="6">
         <f t="shared" ref="E74:E82" si="1">E73+D74</f>
-        <v>193</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="2">
+        <v>45290</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="6">
+        <v>-159</v>
+      </c>
       <c r="E75" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
@@ -1659,7 +1677,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
@@ -1668,7 +1686,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
@@ -1677,7 +1695,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -1686,7 +1704,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -1695,7 +1713,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -1704,7 +1722,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -1713,7 +1731,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -157,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -269,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -300,6 +306,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -593,12 +600,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
@@ -1672,21 +1679,33 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="6"/>
+      <c r="B76" s="2">
+        <v>45294</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="24">
+        <v>-212</v>
+      </c>
       <c r="E76" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="6"/>
+      <c r="B77" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="6">
+        <v>500</v>
+      </c>
       <c r="E77" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
@@ -1695,7 +1714,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -1704,7 +1723,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -1713,7 +1732,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -1722,7 +1741,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -1731,7 +1750,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
